--- a/output/province_web_data/湖南省_学习考察.xlsx
+++ b/output/province_web_data/湖南省_学习考察.xlsx
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
@@ -466,10 +466,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,10 +496,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -530,10 +526,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,10 +556,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -594,10 +586,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,10 +616,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -658,10 +646,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -690,10 +676,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -722,10 +706,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -754,10 +736,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -786,10 +766,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -818,10 +796,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -850,10 +826,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -882,10 +856,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -914,10 +886,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -946,10 +916,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -978,10 +946,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1010,10 +976,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1042,10 +1006,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1074,10 +1036,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1106,10 +1066,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1138,10 +1096,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1170,10 +1126,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1202,10 +1156,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1234,10 +1186,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>15</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1266,10 +1216,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>15</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1298,10 +1246,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1330,10 +1276,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1362,10 +1306,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1394,10 +1336,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1426,10 +1366,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1458,10 +1396,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1490,10 +1426,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1522,10 +1456,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>15</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1554,10 +1486,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>15</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1586,10 +1516,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1618,10 +1546,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1650,10 +1576,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>15</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1682,10 +1606,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>15</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1714,10 +1636,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1746,10 +1666,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>15</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,10 +1696,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>15</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1810,10 +1726,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1842,10 +1756,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>15</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1874,10 +1786,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1906,10 +1816,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>15</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1938,10 +1846,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1970,10 +1876,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>15</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2002,10 +1906,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>15</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2034,10 +1936,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>15</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2066,10 +1966,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>15</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2098,10 +1996,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>15</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2130,10 +2026,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>15</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2162,10 +2056,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>15</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2194,10 +2086,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>15</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2226,10 +2116,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>15</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2258,10 +2146,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>15</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2290,10 +2176,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>15</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2322,10 +2206,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>15</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2354,10 +2236,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>15</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2386,10 +2266,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>15</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2418,10 +2296,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>15</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2450,10 +2326,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>15</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2482,10 +2356,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>15</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2514,10 +2386,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>15</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2546,10 +2416,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>15</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2578,10 +2446,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>15</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2610,10 +2476,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>15</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2642,10 +2506,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>15</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2674,10 +2536,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>15</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2706,10 +2566,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>15</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2738,10 +2596,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>15</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2770,10 +2626,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>15</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2802,10 +2656,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>15</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2834,10 +2686,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>15</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2866,10 +2716,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>15</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2898,10 +2746,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>15</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2930,10 +2776,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>15</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2962,10 +2806,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>15</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2994,10 +2836,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>15</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3026,10 +2866,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>15</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3058,10 +2896,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>15</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3090,10 +2926,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>15</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3122,10 +2956,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>15</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3154,10 +2986,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>15</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3186,10 +3016,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>15</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3218,10 +3046,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>15</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3250,10 +3076,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>15</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3282,10 +3106,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>15</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3314,10 +3136,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>15</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3346,10 +3166,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>15</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3378,10 +3196,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>15</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3410,10 +3226,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>15</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3442,10 +3256,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>15</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3474,10 +3286,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>15</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3506,10 +3316,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>15</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3538,10 +3346,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>15</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3570,10 +3376,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>15</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3602,10 +3406,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>15</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3634,10 +3436,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>15</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3666,10 +3466,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>15</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3698,10 +3496,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>15</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3730,10 +3526,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>15</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3762,10 +3556,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>15</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3794,10 +3586,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>15</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3826,10 +3616,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>15</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3858,10 +3646,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>15</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3890,10 +3676,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>15</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3922,10 +3706,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>15</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3954,10 +3736,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>15</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3986,10 +3766,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>15</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4018,10 +3796,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>15</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4050,10 +3826,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>15</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4082,10 +3856,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>15</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4114,10 +3886,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>15</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4146,10 +3916,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>15</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4178,10 +3946,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>15</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4210,10 +3976,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>15</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4242,10 +4006,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>15</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4274,10 +4036,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>15</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4306,10 +4066,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>15</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4338,10 +4096,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>15</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4370,10 +4126,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>15</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4402,10 +4156,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>15</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4434,10 +4186,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>15</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4466,10 +4216,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>15</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4498,10 +4246,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>15</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4530,10 +4276,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>15</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4562,10 +4306,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>15</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4594,10 +4336,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>15</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4626,10 +4366,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>15</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4658,10 +4396,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>15</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4690,10 +4426,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>15</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4722,10 +4456,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>15</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4754,10 +4486,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>15</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4786,10 +4516,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>15</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4818,10 +4546,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>15</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4850,10 +4576,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>15</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4882,10 +4606,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>15</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4914,10 +4636,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>15</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4946,10 +4666,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>15</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4978,10 +4696,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>15</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5010,10 +4726,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>15</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5042,10 +4756,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>15</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5074,10 +4786,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>15</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5106,10 +4816,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>15</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5138,10 +4846,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>15</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5170,10 +4876,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>15</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5202,10 +4906,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>15</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5234,10 +4936,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>15</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5266,10 +4966,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>15</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5298,10 +4996,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>15</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5330,10 +5026,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>15</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5362,10 +5056,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>15</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5394,10 +5086,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>15</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5426,10 +5116,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>15</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5458,10 +5146,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>15</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5490,10 +5176,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>15</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5522,10 +5206,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>15</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5554,10 +5236,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>15</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5586,10 +5266,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>15</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5618,10 +5296,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>15</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5650,10 +5326,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>15</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5682,10 +5356,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>15</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5714,10 +5386,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>15</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5746,10 +5416,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>15</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5778,10 +5446,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>15</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5810,10 +5476,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>15</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5842,10 +5506,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>15</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5874,10 +5536,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>15</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5906,10 +5566,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>15</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5938,10 +5596,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>15</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5970,10 +5626,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>15</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6002,10 +5656,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>15</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6034,10 +5686,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>15</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6066,10 +5716,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>15</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6098,10 +5746,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>15</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6130,10 +5776,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>15</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6162,10 +5806,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>15</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6194,10 +5836,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>15</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6226,10 +5866,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>15</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6258,10 +5896,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>15</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6290,10 +5926,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>15</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6322,10 +5956,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>15</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6354,10 +5986,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>15</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6386,10 +6016,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>15</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6418,10 +6046,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>15</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6450,10 +6076,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>15</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6482,10 +6106,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>15</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6514,10 +6136,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>15</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6546,10 +6166,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>15</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6578,10 +6196,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>15</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6610,10 +6226,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>15</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -6642,10 +6256,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>15</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -6674,10 +6286,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>15</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6706,10 +6316,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>15</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -6738,10 +6346,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>15</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -6770,10 +6376,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>15</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -6802,10 +6406,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>15</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6834,10 +6436,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>15</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6866,10 +6466,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>15</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6898,10 +6496,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>15</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6930,10 +6526,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>15</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6962,10 +6556,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>15</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6994,10 +6586,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>15</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7026,10 +6616,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A207" t="n">
+        <v>15</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7058,10 +6646,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A208" t="n">
+        <v>15</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7090,10 +6676,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A209" t="n">
+        <v>15</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7122,10 +6706,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A210" t="n">
+        <v>15</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7154,10 +6736,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A211" t="n">
+        <v>15</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7186,10 +6766,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A212" t="n">
+        <v>15</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7218,10 +6796,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A213" t="n">
+        <v>15</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7250,10 +6826,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A214" t="n">
+        <v>15</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7282,10 +6856,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A215" t="n">
+        <v>15</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7314,10 +6886,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A216" t="n">
+        <v>15</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7346,10 +6916,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A217" t="n">
+        <v>15</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7378,10 +6946,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A218" t="n">
+        <v>15</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7410,10 +6976,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A219" t="n">
+        <v>15</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7442,10 +7006,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A220" t="n">
+        <v>15</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7474,10 +7036,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A221" t="n">
+        <v>15</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7506,10 +7066,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A222" t="n">
+        <v>15</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7538,10 +7096,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A223" t="n">
+        <v>15</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -7570,10 +7126,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A224" t="n">
+        <v>15</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -7602,10 +7156,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A225" t="n">
+        <v>15</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -7634,10 +7186,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A226" t="n">
+        <v>15</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -7666,10 +7216,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A227" t="n">
+        <v>15</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -7698,10 +7246,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A228" t="n">
+        <v>15</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -7730,10 +7276,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A229" t="n">
+        <v>15</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7762,10 +7306,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A230" t="n">
+        <v>15</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7794,10 +7336,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A231" t="n">
+        <v>15</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7826,10 +7366,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A232" t="n">
+        <v>15</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7858,10 +7396,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A233" t="n">
+        <v>15</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7890,10 +7426,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A234" t="n">
+        <v>15</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7922,10 +7456,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A235" t="n">
+        <v>15</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7954,10 +7486,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A236" t="n">
+        <v>15</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7986,10 +7516,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A237" t="n">
+        <v>15</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8018,10 +7546,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A238" t="n">
+        <v>15</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8050,10 +7576,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A239" t="n">
+        <v>15</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8082,10 +7606,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A240" t="n">
+        <v>15</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8114,10 +7636,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A241" t="n">
+        <v>15</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8146,10 +7666,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A242" t="n">
+        <v>15</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -8178,10 +7696,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A243" t="n">
+        <v>15</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -8210,10 +7726,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A244" t="n">
+        <v>15</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -8242,10 +7756,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A245" t="n">
+        <v>15</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -8274,10 +7786,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A246" t="n">
+        <v>15</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -8306,10 +7816,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A247" t="n">
+        <v>15</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -8338,10 +7846,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A248" t="n">
+        <v>15</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -8370,10 +7876,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A249" t="n">
+        <v>15</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -8402,10 +7906,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A250" t="n">
+        <v>15</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -8434,10 +7936,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A251" t="n">
+        <v>15</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -8466,10 +7966,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A252" t="n">
+        <v>15</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -8498,10 +7996,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A253" t="n">
+        <v>15</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -8530,10 +8026,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A254" t="n">
+        <v>15</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -8562,10 +8056,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A255" t="n">
+        <v>15</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -8594,10 +8086,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A256" t="n">
+        <v>15</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -8626,10 +8116,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A257" t="n">
+        <v>15</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -8658,10 +8146,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A258" t="n">
+        <v>15</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -8690,10 +8176,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A259" t="n">
+        <v>15</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -8722,10 +8206,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A260" t="n">
+        <v>15</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -8754,10 +8236,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A261" t="n">
+        <v>15</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -8786,10 +8266,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A262" t="n">
+        <v>15</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -8818,10 +8296,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A263" t="n">
+        <v>15</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -8850,10 +8326,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A264" t="n">
+        <v>15</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -8882,10 +8356,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A265" t="n">
+        <v>15</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -8914,10 +8386,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A266" t="n">
+        <v>15</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -8946,10 +8416,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A267" t="n">
+        <v>15</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -8978,10 +8446,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A268" t="n">
+        <v>15</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -9010,10 +8476,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A269" t="n">
+        <v>15</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -9042,10 +8506,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A270" t="n">
+        <v>15</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -9074,10 +8536,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A271" t="n">
+        <v>15</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -9106,10 +8566,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A272" t="n">
+        <v>15</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -9138,10 +8596,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A273" t="n">
+        <v>15</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -9170,10 +8626,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A274" t="n">
+        <v>15</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -9202,10 +8656,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A275" t="n">
+        <v>15</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -9234,10 +8686,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A276" t="n">
+        <v>15</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -9266,10 +8716,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A277" t="n">
+        <v>15</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -9298,10 +8746,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A278" t="n">
+        <v>15</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -9330,10 +8776,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A279" t="n">
+        <v>15</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -9362,10 +8806,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A280" t="n">
+        <v>15</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -9394,10 +8836,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A281" t="n">
+        <v>15</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -9426,10 +8866,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A282" t="n">
+        <v>15</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -9458,10 +8896,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A283" t="n">
+        <v>15</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -9490,10 +8926,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A284" t="n">
+        <v>15</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -9522,10 +8956,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A285" t="n">
+        <v>15</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -9554,10 +8986,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A286" t="n">
+        <v>15</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -9586,10 +9016,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A287" t="n">
+        <v>15</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -9618,10 +9046,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A288" t="n">
+        <v>15</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -9650,10 +9076,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A289" t="n">
+        <v>15</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -9682,10 +9106,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A290" t="n">
+        <v>15</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -9714,10 +9136,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A291" t="n">
+        <v>15</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -9746,10 +9166,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A292" t="n">
+        <v>15</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -9778,10 +9196,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A293" t="n">
+        <v>15</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -9810,10 +9226,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A294" t="n">
+        <v>15</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -9842,10 +9256,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A295" t="n">
+        <v>15</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -9874,10 +9286,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A296" t="n">
+        <v>15</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -9906,10 +9316,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A297" t="n">
+        <v>15</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -9938,10 +9346,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A298" t="n">
+        <v>15</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -9970,10 +9376,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A299" t="n">
+        <v>15</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -10002,10 +9406,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A300" t="n">
+        <v>15</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -10034,10 +9436,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A301" t="n">
+        <v>15</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -10066,10 +9466,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A302" t="n">
+        <v>15</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -10098,10 +9496,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A303" t="n">
+        <v>15</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -10130,10 +9526,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A304" t="n">
+        <v>15</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -10162,10 +9556,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A305" t="n">
+        <v>15</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -10194,10 +9586,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A306" t="n">
+        <v>15</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -10226,10 +9616,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A307" t="n">
+        <v>15</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -10258,10 +9646,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A308" t="n">
+        <v>15</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -10290,10 +9676,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A309" t="n">
+        <v>15</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -10322,10 +9706,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A310" t="n">
+        <v>15</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -10354,10 +9736,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A311" t="n">
+        <v>15</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -10386,10 +9766,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A312" t="n">
+        <v>15</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -10418,10 +9796,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A313" t="n">
+        <v>15</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -10450,10 +9826,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A314" t="n">
+        <v>15</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -10482,10 +9856,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A315" t="n">
+        <v>15</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -10514,10 +9886,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A316" t="n">
+        <v>15</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -10546,10 +9916,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A317" t="n">
+        <v>15</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -10578,10 +9946,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A318" t="n">
+        <v>15</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -10610,10 +9976,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A319" t="n">
+        <v>15</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -10642,10 +10006,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A320" t="n">
+        <v>15</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -10674,10 +10036,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A321" t="n">
+        <v>15</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -10706,10 +10066,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A322" t="n">
+        <v>15</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -10738,10 +10096,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A323" t="n">
+        <v>15</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -10770,10 +10126,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A324" t="n">
+        <v>15</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -10802,10 +10156,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A325" t="n">
+        <v>15</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -10834,10 +10186,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A326" t="n">
+        <v>15</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -10866,10 +10216,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A327" t="n">
+        <v>15</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -10898,10 +10246,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A328" t="n">
+        <v>15</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -10930,10 +10276,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A329" t="n">
+        <v>15</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -10962,10 +10306,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A330" t="n">
+        <v>15</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -10994,10 +10336,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A331" t="n">
+        <v>15</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -11026,10 +10366,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A332" t="n">
+        <v>15</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -11058,10 +10396,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A333" t="n">
+        <v>15</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -11090,10 +10426,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A334" t="n">
+        <v>15</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -11122,10 +10456,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A335" t="n">
+        <v>15</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -11154,10 +10486,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A336" t="n">
+        <v>15</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -11186,10 +10516,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A337" t="n">
+        <v>15</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -11218,10 +10546,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A338" t="n">
+        <v>15</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -11250,10 +10576,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A339" t="n">
+        <v>15</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -11282,10 +10606,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A340" t="n">
+        <v>15</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -11314,10 +10636,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A341" t="n">
+        <v>15</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -11346,10 +10666,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A342" t="n">
+        <v>15</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -11378,10 +10696,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A343" t="n">
+        <v>15</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -11410,10 +10726,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A344" t="n">
+        <v>15</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -11442,10 +10756,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A345" t="n">
+        <v>15</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -11474,10 +10786,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A346" t="n">
+        <v>15</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -11506,10 +10816,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A347" t="n">
+        <v>15</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -11538,10 +10846,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A348" t="n">
+        <v>15</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -11570,10 +10876,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A349" t="n">
+        <v>15</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -11602,10 +10906,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A350" t="n">
+        <v>15</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -11634,10 +10936,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A351" t="n">
+        <v>15</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -11666,10 +10966,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A352" t="n">
+        <v>15</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -11698,10 +10996,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A353" t="n">
+        <v>15</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -11730,10 +11026,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A354" t="n">
+        <v>15</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -11762,10 +11056,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A355" t="n">
+        <v>15</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -11794,10 +11086,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A356" t="n">
+        <v>15</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -11826,10 +11116,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A357" t="n">
+        <v>15</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -11858,10 +11146,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A358" t="n">
+        <v>15</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -11890,10 +11176,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A359" t="n">
+        <v>15</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -11922,10 +11206,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A360" t="n">
+        <v>15</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -11954,10 +11236,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A361" t="n">
+        <v>15</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -11986,10 +11266,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A362" t="n">
+        <v>15</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -12018,10 +11296,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A363" t="n">
+        <v>15</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -12050,10 +11326,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A364" t="n">
+        <v>15</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -12082,10 +11356,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A365" t="n">
+        <v>15</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -12114,10 +11386,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A366" t="n">
+        <v>15</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -12146,10 +11416,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A367" t="n">
+        <v>15</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -12178,10 +11446,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A368" t="n">
+        <v>15</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -12210,10 +11476,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A369" t="n">
+        <v>15</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -12242,10 +11506,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A370" t="n">
+        <v>15</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -12274,10 +11536,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A371" t="n">
+        <v>15</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -12306,10 +11566,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A372" t="n">
+        <v>15</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -12338,10 +11596,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A373" t="n">
+        <v>15</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -12370,10 +11626,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A374" t="n">
+        <v>15</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -12402,10 +11656,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A375" t="n">
+        <v>15</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -12434,10 +11686,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A376" t="n">
+        <v>15</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -12466,10 +11716,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A377" t="n">
+        <v>15</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -12498,10 +11746,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A378" t="n">
+        <v>15</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -12530,10 +11776,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A379" t="n">
+        <v>15</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -12562,10 +11806,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A380" t="n">
+        <v>15</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -12594,10 +11836,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A381" t="n">
+        <v>15</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -12626,10 +11866,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A382" t="n">
+        <v>15</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -12658,10 +11896,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A383" t="n">
+        <v>15</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -12690,10 +11926,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A384" t="n">
+        <v>15</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -12722,10 +11956,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A385" t="n">
+        <v>15</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -12754,10 +11986,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A386" t="n">
+        <v>15</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -12786,10 +12016,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A387" t="n">
+        <v>15</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -12818,10 +12046,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A388" t="n">
+        <v>15</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -12850,10 +12076,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A389" t="n">
+        <v>15</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -12882,10 +12106,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A390" t="n">
+        <v>15</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -12914,10 +12136,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A391" t="n">
+        <v>15</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -12946,10 +12166,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A392" t="n">
+        <v>15</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -12978,10 +12196,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A393" t="n">
+        <v>15</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -13010,10 +12226,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A394" t="n">
+        <v>15</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -13042,10 +12256,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A395" t="n">
+        <v>15</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -13074,10 +12286,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A396" t="n">
+        <v>15</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -13106,10 +12316,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A397" t="n">
+        <v>15</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -13138,10 +12346,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A398" t="n">
+        <v>15</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -13170,10 +12376,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A399" t="n">
+        <v>15</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -13202,10 +12406,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A400" t="n">
+        <v>15</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -13234,10 +12436,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A401" t="n">
+        <v>15</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -13266,10 +12466,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A402" t="n">
+        <v>15</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -13298,10 +12496,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A403" t="n">
+        <v>15</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -13330,10 +12526,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A404" t="n">
+        <v>15</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -13362,10 +12556,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A405" t="n">
+        <v>15</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -13394,10 +12586,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A406" t="n">
+        <v>15</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -13426,10 +12616,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A407" t="n">
+        <v>15</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -13458,10 +12646,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A408" t="n">
+        <v>15</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -13490,10 +12676,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A409" t="n">
+        <v>15</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -13522,10 +12706,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A410" t="n">
+        <v>15</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -13554,10 +12736,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A411" t="n">
+        <v>15</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -13586,10 +12766,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A412" t="n">
+        <v>15</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -13618,10 +12796,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A413" t="n">
+        <v>15</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -13650,10 +12826,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A414" t="n">
+        <v>15</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -13682,10 +12856,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A415" t="n">
+        <v>15</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -13714,10 +12886,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A416" t="n">
+        <v>15</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -13746,10 +12916,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A417" t="n">
+        <v>15</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -13778,10 +12946,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A418" t="n">
+        <v>15</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -13810,10 +12976,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A419" t="n">
+        <v>15</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -13842,10 +13006,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A420" t="n">
+        <v>15</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -13874,10 +13036,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A421" t="n">
+        <v>15</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -13906,10 +13066,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A422" t="n">
+        <v>15</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -13938,10 +13096,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A423" t="n">
+        <v>15</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -13970,10 +13126,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A424" t="n">
+        <v>15</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -14002,10 +13156,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A425" t="n">
+        <v>15</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -14034,10 +13186,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A426" t="n">
+        <v>15</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -14066,10 +13216,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A427" t="n">
+        <v>15</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -14098,10 +13246,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A428" t="n">
+        <v>15</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -14130,10 +13276,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A429" t="n">
+        <v>15</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -14162,10 +13306,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A430" t="n">
+        <v>15</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -14194,10 +13336,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A431" t="n">
+        <v>15</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -14226,10 +13366,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A432" t="n">
+        <v>15</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -14258,10 +13396,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A433" t="n">
+        <v>15</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -14290,10 +13426,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A434" t="n">
+        <v>15</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -14322,10 +13456,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A435" t="n">
+        <v>15</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -14354,10 +13486,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A436" t="n">
+        <v>15</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -14386,10 +13516,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A437" t="n">
+        <v>15</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -14418,10 +13546,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A438" t="n">
+        <v>15</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -14450,10 +13576,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A439" t="n">
+        <v>15</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -14482,10 +13606,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A440" t="n">
+        <v>15</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -14514,10 +13636,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A441" t="n">
+        <v>15</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -14546,10 +13666,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A442" t="n">
+        <v>15</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -14578,10 +13696,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A443" t="n">
+        <v>15</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -14610,10 +13726,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A444" t="n">
+        <v>15</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -14642,10 +13756,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A445" t="n">
+        <v>15</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -14674,10 +13786,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A446" t="n">
+        <v>15</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -14706,10 +13816,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A447" t="n">
+        <v>15</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -14738,10 +13846,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A448" t="n">
+        <v>15</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -14770,10 +13876,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A449" t="n">
+        <v>15</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -14802,10 +13906,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A450" t="n">
+        <v>15</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -14834,10 +13936,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A451" t="n">
+        <v>15</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -14866,10 +13966,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A452" t="n">
+        <v>15</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -14898,10 +13996,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A453" t="n">
+        <v>15</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -14930,10 +14026,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A454" t="n">
+        <v>15</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -14962,10 +14056,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A455" t="n">
+        <v>15</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -14994,10 +14086,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A456" t="n">
+        <v>15</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -15026,10 +14116,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A457" t="n">
+        <v>15</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -15058,10 +14146,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A458" t="n">
+        <v>15</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -15090,10 +14176,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A459" t="n">
+        <v>15</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -15122,10 +14206,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A460" t="n">
+        <v>15</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -15154,10 +14236,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A461" t="n">
+        <v>15</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -15186,10 +14266,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A462" t="n">
+        <v>15</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -15218,10 +14296,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A463" t="n">
+        <v>15</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -15250,10 +14326,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A464" t="n">
+        <v>15</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -15282,10 +14356,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A465" t="n">
+        <v>15</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -15314,10 +14386,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A466" t="n">
+        <v>15</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -15346,10 +14416,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A467" t="n">
+        <v>15</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -15378,10 +14446,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A468" t="n">
+        <v>15</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -15410,10 +14476,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A469" t="n">
+        <v>15</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -15442,10 +14506,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A470" t="n">
+        <v>15</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -15474,10 +14536,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A471" t="n">
+        <v>15</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -15506,10 +14566,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A472" t="n">
+        <v>15</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -15538,10 +14596,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A473" t="n">
+        <v>15</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -15570,10 +14626,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A474" t="n">
+        <v>15</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -15602,10 +14656,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A475" t="n">
+        <v>15</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -15634,10 +14686,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A476" t="n">
+        <v>15</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -15666,10 +14716,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A477" t="n">
+        <v>15</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -15698,10 +14746,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A478" t="n">
+        <v>15</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -15730,10 +14776,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A479" t="n">
+        <v>15</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -15762,10 +14806,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A480" t="n">
+        <v>15</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -15794,10 +14836,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A481" t="n">
+        <v>15</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -15826,10 +14866,8 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A482" t="n">
+        <v>15</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -15858,10 +14896,8 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A483" t="n">
+        <v>15</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -15890,10 +14926,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A484" t="n">
+        <v>15</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -15922,10 +14956,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A485" t="n">
+        <v>15</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -15954,10 +14986,8 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A486" t="n">
+        <v>15</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -15986,10 +15016,8 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A487" t="n">
+        <v>15</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -16018,10 +15046,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A488" t="n">
+        <v>15</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -16050,10 +15076,8 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A489" t="n">
+        <v>15</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -16082,10 +15106,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A490" t="n">
+        <v>15</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -16114,10 +15136,8 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A491" t="n">
+        <v>15</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
